--- a/第一轮建模/生产问题.xlsx
+++ b/第一轮建模/生产问题.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>生产基地</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,72 +38,76 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>向左</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
-  </si>
-  <si>
-    <t>S7</t>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>A11</t>
-  </si>
-  <si>
-    <t>A12</t>
-  </si>
-  <si>
-    <t>A13</t>
-  </si>
-  <si>
-    <t>A14</t>
-  </si>
-  <si>
-    <t>A15</t>
+  </si>
+  <si>
+    <t>判断是否有向右路径，有的写出</t>
   </si>
 </sst>
 </file>
@@ -605,10 +609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -618,105 +622,507 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>160.30000000000001</v>
+      </c>
+      <c r="D2">
+        <v>140.19999999999999</v>
+      </c>
+      <c r="E2">
+        <v>98.6</v>
+      </c>
+      <c r="F2">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>20.5</v>
+      </c>
+      <c r="H2">
+        <v>3.1</v>
+      </c>
+      <c r="I2">
+        <v>21.2</v>
+      </c>
+      <c r="J2">
+        <v>64.2</v>
+      </c>
+      <c r="K2">
+        <v>92</v>
+      </c>
+      <c r="L2">
+        <v>96</v>
+      </c>
+      <c r="M2">
+        <v>106</v>
+      </c>
+      <c r="N2">
+        <v>121.2</v>
+      </c>
+      <c r="O2">
+        <v>128</v>
+      </c>
+      <c r="P2">
+        <v>142</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
+      <c r="C3">
+        <v>205.3</v>
+      </c>
+      <c r="D3">
+        <v>190.2</v>
+      </c>
+      <c r="E3">
+        <v>171.6</v>
+      </c>
+      <c r="F3">
+        <v>111</v>
+      </c>
+      <c r="G3">
+        <v>95.5</v>
+      </c>
+      <c r="H3">
+        <v>86</v>
+      </c>
+      <c r="I3">
+        <v>71.2</v>
+      </c>
+      <c r="J3">
+        <v>114.2</v>
+      </c>
+      <c r="K3">
+        <v>142</v>
+      </c>
+      <c r="L3">
+        <v>146</v>
+      </c>
+      <c r="M3">
+        <v>156</v>
+      </c>
+      <c r="N3">
+        <v>171.2</v>
+      </c>
+      <c r="O3">
+        <v>178</v>
+      </c>
+      <c r="P3">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
+      <c r="C4">
+        <v>220.3</v>
+      </c>
+      <c r="D4">
+        <v>200.2</v>
+      </c>
+      <c r="E4">
+        <v>181.6</v>
+      </c>
+      <c r="F4">
+        <v>121</v>
+      </c>
+      <c r="G4">
+        <v>105.5</v>
+      </c>
+      <c r="H4">
+        <v>96</v>
+      </c>
+      <c r="I4">
+        <v>86.2</v>
+      </c>
+      <c r="J4">
+        <v>48.2</v>
+      </c>
+      <c r="K4">
+        <v>82</v>
+      </c>
+      <c r="L4">
+        <v>86</v>
+      </c>
+      <c r="M4">
+        <v>96</v>
+      </c>
+      <c r="N4">
+        <v>111.2</v>
+      </c>
+      <c r="O4">
+        <v>118</v>
+      </c>
+      <c r="P4">
+        <v>132</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>250.3</v>
+      </c>
+      <c r="D5">
+        <v>235.2</v>
+      </c>
+      <c r="E5">
+        <v>216.6</v>
+      </c>
+      <c r="F5">
+        <v>156</v>
+      </c>
+      <c r="G5">
+        <v>140.5</v>
+      </c>
+      <c r="H5">
+        <v>131</v>
+      </c>
+      <c r="I5">
+        <v>116.2</v>
+      </c>
+      <c r="J5">
+        <v>84.2</v>
+      </c>
+      <c r="K5">
+        <v>62</v>
+      </c>
+      <c r="L5">
+        <v>51</v>
+      </c>
+      <c r="M5">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>76.2</v>
+      </c>
+      <c r="O5">
+        <v>83</v>
+      </c>
+      <c r="P5">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
+      <c r="C6">
+        <v>245.3</v>
+      </c>
+      <c r="D6">
+        <v>225.2</v>
+      </c>
+      <c r="E6">
+        <v>206.6</v>
+      </c>
+      <c r="F6">
+        <v>146</v>
+      </c>
+      <c r="G6">
+        <v>130.5</v>
+      </c>
+      <c r="H6">
+        <v>121</v>
+      </c>
+      <c r="I6">
+        <v>111.2</v>
+      </c>
+      <c r="J6">
+        <v>79.2</v>
+      </c>
+      <c r="K6">
+        <v>57</v>
+      </c>
+      <c r="L6">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>51</v>
+      </c>
+      <c r="N6">
+        <v>71.2</v>
+      </c>
+      <c r="O6">
+        <v>73</v>
+      </c>
+      <c r="P6">
+        <v>87</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
+      <c r="C7">
+        <v>255.3</v>
+      </c>
+      <c r="D7">
+        <v>235.2</v>
+      </c>
+      <c r="E7">
+        <v>235</v>
+      </c>
+      <c r="F7">
+        <v>156</v>
+      </c>
+      <c r="G7">
+        <v>140.5</v>
+      </c>
+      <c r="H7">
+        <v>131</v>
+      </c>
+      <c r="I7">
+        <v>121.2</v>
+      </c>
+      <c r="J7">
+        <v>84.2</v>
+      </c>
+      <c r="K7">
+        <v>62</v>
+      </c>
+      <c r="L7">
+        <v>51</v>
+      </c>
+      <c r="M7">
+        <v>45</v>
+      </c>
+      <c r="N7">
+        <v>26.2</v>
+      </c>
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+      <c r="C8">
+        <v>265.3</v>
+      </c>
+      <c r="D8">
+        <v>245.2</v>
+      </c>
+      <c r="E8">
+        <v>226.6</v>
+      </c>
+      <c r="F8">
+        <v>166</v>
+      </c>
+      <c r="G8">
+        <v>150.5</v>
+      </c>
+      <c r="H8">
+        <v>141</v>
+      </c>
+      <c r="I8">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="J8">
+        <v>99.2</v>
+      </c>
+      <c r="K8">
+        <v>77</v>
+      </c>
+      <c r="L8">
+        <v>66</v>
+      </c>
+      <c r="M8">
+        <v>56</v>
+      </c>
+      <c r="N8">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="O8">
+        <v>26</v>
+      </c>
+      <c r="P8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/第一轮建模/生产问题.xlsx
+++ b/第一轮建模/生产问题.xlsx
@@ -612,12 +612,12 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="P8" sqref="B2:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="16" width="4.6640625" customWidth="1"/>
+    <col min="2" max="16" width="7.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -672,7 +672,7 @@
         <v>26</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>170.7</v>
       </c>
       <c r="C2">
         <v>160.30000000000001</v>
@@ -722,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>215.7</v>
       </c>
       <c r="C3">
         <v>205.3</v>
@@ -772,7 +772,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>230.7</v>
       </c>
       <c r="C4">
         <v>220.3</v>
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>260.7</v>
       </c>
       <c r="C5">
         <v>250.3</v>
@@ -872,7 +872,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>255.7</v>
       </c>
       <c r="C6">
         <v>245.3</v>
@@ -922,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>240.7</v>
       </c>
       <c r="C7">
         <v>255.3</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>250.7</v>
       </c>
       <c r="C8">
         <v>265.3</v>
